--- a/ExcelDB/BuildItemData.xlsx
+++ b/ExcelDB/BuildItemData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity_project\TeamProject_Survival\Survival\Survival\Assets\Resources\DataSO\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajin\Desktop\Unity\Unity_project\TeamProject_Survival\Survival\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38FCB87-4CA1-4742-A206-2BBFAE058C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2CC40-B5C1-49DD-B816-134AD5C11EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="1956" windowWidth="20796" windowHeight="12120" xr2:uid="{87CC9680-1ADE-4891-8706-9F68FAE83D61}"/>
+    <workbookView xWindow="-22980" yWindow="0" windowWidth="23040" windowHeight="12120" xr2:uid="{87CC9680-1ADE-4891-8706-9F68FAE83D61}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildItem" sheetId="2" r:id="rId1"/>
@@ -36,74 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>MaxStackAmount</t>
+  </si>
+  <si>
+    <t>RequireResourceName</t>
+  </si>
+  <si>
+    <t>RequireCount</t>
   </si>
   <si>
     <t>SpritePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작업대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무언가를 만들 수 있을 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>나무</t>
+  </si>
+  <si>
+    <t>Sprite/well</t>
+  </si>
+  <si>
+    <t>Prefabs/well</t>
   </si>
   <si>
     <t xml:space="preserve">오두막 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>간이로 지은 것 치고는 튼튼하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>침대 밖은 위험해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxStackAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequireResourceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequireCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -490,7 +479,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I4" sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -505,31 +494,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -537,22 +526,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -560,22 +555,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -583,22 +584,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
